--- a/lang/official_GDPR_translations.xlsx
+++ b/lang/official_GDPR_translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snet/Documents/H2020 Projekte/2021/TRAPEZE/work packages/work package 4/TUB/privacy-dashboard/internal-repo/trapez-privacy-dashboard/lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A55B88A-1C32-FC49-99E5-C0E049638626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FDDD7A-B2D3-2044-A9D6-6E90ADF53F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="3260" windowWidth="28800" windowHeight="17500" xr2:uid="{F5AAD40B-F190-B24C-A5C1-AA6E07944652}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21600" xr2:uid="{F5AAD40B-F190-B24C-A5C1-AA6E07944652}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,9 +457,6 @@
     <t>Art. 4 &lt;VERIFY&gt; RGPD</t>
   </si>
   <si>
-    <t>Art. 4(&lt;Absatz&gt;) GDPR</t>
-  </si>
-  <si>
     <t>sources:</t>
   </si>
   <si>
@@ -521,6 +518,9 @@
   </si>
   <si>
     <t>inofficial</t>
+  </si>
+  <si>
+    <t>Art. 4(&lt;Absatz&gt;)(&lt;bulletpoint&gt;) GDPR</t>
   </si>
 </sst>
 </file>
@@ -884,13 +884,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC61F687-4242-4A48-8CD8-A913C446BAEC}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
     <col min="4" max="4" width="43.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.1640625" customWidth="1"/>
     <col min="6" max="6" width="37.1640625" bestFit="1" customWidth="1"/>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -933,7 +933,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
         <v>136</v>
@@ -1389,70 +1389,70 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
         <v>142</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>143</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" t="s">
         <v>144</v>
-      </c>
-      <c r="E39" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" t="s">
         <v>149</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>151</v>
       </c>
-      <c r="D40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>152</v>
-      </c>
-      <c r="F40" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" t="s">
         <v>154</v>
-      </c>
-      <c r="C41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" t="s">
-        <v>156</v>
-      </c>
-      <c r="F41" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" t="s">
         <v>159</v>
-      </c>
-      <c r="E42" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/lang/official_GDPR_translations.xlsx
+++ b/lang/official_GDPR_translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snet/Documents/H2020 Projekte/2021/TRAPEZE/work packages/work package 4/TUB/privacy-dashboard/internal-repo/trapez-privacy-dashboard/lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FDDD7A-B2D3-2044-A9D6-6E90ADF53F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB4D1EF-FFB2-F349-B194-A418CFA2679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21600" xr2:uid="{F5AAD40B-F190-B24C-A5C1-AA6E07944652}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{F5AAD40B-F190-B24C-A5C1-AA6E07944652}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="177">
   <si>
     <t>Glossary</t>
   </si>
@@ -445,24 +445,12 @@
     <t>https://legallayman.de/wie-liest-und-zitiert-man-eigentlich-paragraphen/</t>
   </si>
   <si>
-    <t>Art. 4 | &lt;Absatz&gt; DSGVO</t>
-  </si>
-  <si>
     <t>https://www.privacy-regulation.eu/fr/4.htm</t>
   </si>
   <si>
-    <t>Art. 4 &lt;VERIFY&gt;RGPD</t>
-  </si>
-  <si>
-    <t>Art. 4 &lt;VERIFY&gt; RGPD</t>
-  </si>
-  <si>
     <t>sources:</t>
   </si>
   <si>
-    <t>Art. 5(1)(B)</t>
-  </si>
-  <si>
     <t>purpose/purposes</t>
   </si>
   <si>
@@ -520,7 +508,64 @@
     <t>inofficial</t>
   </si>
   <si>
-    <t>Art. 4(&lt;Absatz&gt;)(&lt;bulletpoint&gt;) GDPR</t>
+    <t>Article 4 ist ein "unnumbered paragraph" [info von Bud am 1. Aug 2022]</t>
+  </si>
+  <si>
+    <t>all'articolo 1, paragrafo 1</t>
+  </si>
+  <si>
+    <t>https://publications.europa.eu/code/it/it-120700.htm</t>
+  </si>
+  <si>
+    <t>In Article 4(&lt;point&gt;) GDPR</t>
+  </si>
+  <si>
+    <t>In Artikel 4, Nummer &lt;Nummer&gt; DSGVO</t>
+  </si>
+  <si>
+    <t>À l'article 4, point &lt;Nummer&gt; RGPD</t>
+  </si>
+  <si>
+    <t>All'articolo 4, punto &lt;Nummer&gt; RGPD</t>
+  </si>
+  <si>
+    <t>In Article 13(1)(b)</t>
+  </si>
+  <si>
+    <t>In Article 5(1)(b) GDPR</t>
+  </si>
+  <si>
+    <t>In Article 9(2)(a)</t>
+  </si>
+  <si>
+    <t>Art. 5(1)(b)</t>
+  </si>
+  <si>
+    <t>In Artikel 5, Absatz 1, Buchstabe b  DSGVO</t>
+  </si>
+  <si>
+    <t>In Artikel 13, Absatz 1, Buchstabe b DSGVO</t>
+  </si>
+  <si>
+    <t>In Artikel 9, Absatz 2, Buchstabe a</t>
+  </si>
+  <si>
+    <t>All'articolo 5, paragrafo 1, lettera b) RGPD</t>
+  </si>
+  <si>
+    <t>All'articolo 9, paragrafo 2, lettera a) RGPD</t>
+  </si>
+  <si>
+    <t>All'articolo 13, paragrafo 1, lettera b) RGPD</t>
+  </si>
+  <si>
+    <t>À l'article 5, premier paragraphe, point b) RGPD</t>
+  </si>
+  <si>
+    <t>À l'article 9, deuxième paragraphe, point b) RGPD</t>
+  </si>
+  <si>
+    <t>À l'article 13, premier paragraphe, point b) RGPD</t>
   </si>
 </sst>
 </file>
@@ -882,18 +927,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC61F687-4242-4A48-8CD8-A913C446BAEC}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" customWidth="1"/>
-    <col min="6" max="6" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -901,12 +946,12 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -914,6 +959,19 @@
         <v>135</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>134</v>
@@ -933,16 +991,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
         <v>161</v>
       </c>
-      <c r="D8" t="s">
-        <v>136</v>
-      </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1387,72 +1445,114 @@
         <v>108</v>
       </c>
     </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" t="s">
         <v>141</v>
       </c>
-      <c r="C39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" t="s">
-        <v>145</v>
-      </c>
       <c r="F39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>148</v>
-      </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="F40" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
         <v>146</v>
       </c>
       <c r="D41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>156</v>
       </c>
-      <c r="E41" t="s">
+      <c r="C45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" t="s">
         <v>155</v>
-      </c>
-      <c r="F41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" t="s">
-        <v>157</v>
-      </c>
-      <c r="F42" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/lang/official_GDPR_translations.xlsx
+++ b/lang/official_GDPR_translations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snet/Documents/H2020 Projekte/2021/TRAPEZE/work packages/work package 4/TUB/privacy-dashboard/internal-repo/trapez-privacy-dashboard/lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB4D1EF-FFB2-F349-B194-A418CFA2679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652C2420-4CC5-3144-B65D-BF31AA4834A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{F5AAD40B-F190-B24C-A5C1-AA6E07944652}"/>
   </bookViews>
@@ -572,7 +572,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -584,6 +584,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -606,15 +614,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -929,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC61F687-4242-4A48-8CD8-A913C446BAEC}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,7 +978,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1007,16 +1017,16 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1556,6 +1566,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{48EE1071-6312-9C4B-A27F-98A7AE70C3A2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lang/official_GDPR_translations.xlsx
+++ b/lang/official_GDPR_translations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snet/Documents/H2020 Projekte/2021/TRAPEZE/work packages/work package 4/TUB/privacy-dashboard/internal-repo/trapez-privacy-dashboard/lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652C2420-4CC5-3144-B65D-BF31AA4834A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9991BC-B3C7-744C-AE88-58FEA2B00F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{F5AAD40B-F190-B24C-A5C1-AA6E07944652}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="181">
   <si>
     <t>Glossary</t>
   </si>
@@ -566,6 +566,18 @@
   </si>
   <si>
     <t>À l'article 13, premier paragraphe, point b) RGPD</t>
+  </si>
+  <si>
+    <t>withdraw consent</t>
+  </si>
+  <si>
+    <t>Einwilligung wiederrufen</t>
+  </si>
+  <si>
+    <t>retirer consentement</t>
+  </si>
+  <si>
+    <t>ritirare consenso</t>
   </si>
 </sst>
 </file>
@@ -937,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC61F687-4242-4A48-8CD8-A913C446BAEC}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1565,6 +1577,20 @@
         <v>155</v>
       </c>
     </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{48EE1071-6312-9C4B-A27F-98A7AE70C3A2}"/>

--- a/lang/official_GDPR_translations.xlsx
+++ b/lang/official_GDPR_translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snet/Documents/H2020 Projekte/2021/TRAPEZE/work packages/work package 4/TUB/privacy-dashboard/internal-repo/trapez-privacy-dashboard/lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9991BC-B3C7-744C-AE88-58FEA2B00F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C82DF44-0A2E-5347-AA24-837077781D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{F5AAD40B-F190-B24C-A5C1-AA6E07944652}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="183">
   <si>
     <t>Glossary</t>
   </si>
@@ -578,6 +578,12 @@
   </si>
   <si>
     <t>ritirare consenso</t>
+  </si>
+  <si>
+    <t>Einwilligung erteilen</t>
+  </si>
+  <si>
+    <t>give consent</t>
   </si>
 </sst>
 </file>
@@ -949,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC61F687-4242-4A48-8CD8-A913C446BAEC}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B9" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1591,6 +1597,14 @@
         <v>179</v>
       </c>
     </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{48EE1071-6312-9C4B-A27F-98A7AE70C3A2}"/>

--- a/lang/official_GDPR_translations.xlsx
+++ b/lang/official_GDPR_translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snet/Documents/H2020 Projekte/2021/TRAPEZE/work packages/work package 4/TUB/privacy-dashboard/internal-repo/trapez-privacy-dashboard/lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C82DF44-0A2E-5347-AA24-837077781D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B70293B-8E76-504C-B239-1CC386C80E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{F5AAD40B-F190-B24C-A5C1-AA6E07944652}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="187">
   <si>
     <t>Glossary</t>
   </si>
@@ -478,12 +478,6 @@
     <t>data protection officer (DPO)</t>
   </si>
   <si>
-    <t>responsabile della protezione dei dati</t>
-  </si>
-  <si>
-    <t>délégué à la protection des données</t>
-  </si>
-  <si>
     <t>Art. 9(2)(a)</t>
   </si>
   <si>
@@ -584,6 +578,24 @@
   </si>
   <si>
     <t>give consent</t>
+  </si>
+  <si>
+    <t>obtain consent</t>
+  </si>
+  <si>
+    <t>recueillir consentement</t>
+  </si>
+  <si>
+    <t>Einwilligung einholen</t>
+  </si>
+  <si>
+    <t>délégué à la protection des données (DPD)</t>
+  </si>
+  <si>
+    <t>responsabile della protezione dei dati (RPD)</t>
+  </si>
+  <si>
+    <t>dare il consenso</t>
   </si>
 </sst>
 </file>
@@ -955,9 +967,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC61F687-4242-4A48-8CD8-A913C446BAEC}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -989,15 +1001,15 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1019,16 +1031,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" t="s">
         <v>160</v>
-      </c>
-      <c r="D8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1475,21 +1487,21 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
         <v>138</v>
@@ -1506,16 +1518,16 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
@@ -1529,80 +1541,94 @@
         <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" t="s">
         <v>170</v>
       </c>
-      <c r="E42" t="s">
-        <v>172</v>
-      </c>
       <c r="F42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C43" t="s">
         <v>142</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
         <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" t="s">
         <v>153</v>
-      </c>
-      <c r="F45" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" t="s">
         <v>177</v>
-      </c>
-      <c r="D47" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" t="s">
         <v>182</v>
-      </c>
-      <c r="D48" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/lang/official_GDPR_translations.xlsx
+++ b/lang/official_GDPR_translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snet/Documents/H2020 Projekte/2021/TRAPEZE/work packages/work package 4/TUB/privacy-dashboard/internal-repo/trapez-privacy-dashboard/lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B70293B-8E76-504C-B239-1CC386C80E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B18891-FF53-004C-8C98-381492D9C996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{F5AAD40B-F190-B24C-A5C1-AA6E07944652}"/>
+    <workbookView xWindow="-33680" yWindow="4760" windowWidth="23500" windowHeight="17880" xr2:uid="{F5AAD40B-F190-B24C-A5C1-AA6E07944652}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="198">
   <si>
     <t>Glossary</t>
   </si>
@@ -58,9 +58,6 @@
     <t>personenbezogene Daten</t>
   </si>
   <si>
-    <t>dati personale</t>
-  </si>
-  <si>
     <t>données à caractère personnel</t>
   </si>
   <si>
@@ -481,9 +478,6 @@
     <t>Art. 9(2)(a)</t>
   </si>
   <si>
-    <t>interessato ha prestato</t>
-  </si>
-  <si>
     <t>personne concernée</t>
   </si>
   <si>
@@ -596,6 +590,45 @@
   </si>
   <si>
     <t>dare il consenso</t>
+  </si>
+  <si>
+    <t>General Data Protection Regulation</t>
+  </si>
+  <si>
+    <t>Datenschutz-Grundverordnung</t>
+  </si>
+  <si>
+    <t>Règlement Général sur la Protection des Données</t>
+  </si>
+  <si>
+    <t>interessato</t>
+  </si>
+  <si>
+    <t>dato/dati personale</t>
+  </si>
+  <si>
+    <t>Data Protection Officer (DPO)</t>
+  </si>
+  <si>
+    <t>Datenschutzbeauftragter (DSB)</t>
+  </si>
+  <si>
+    <t>Responsabile della Protezione dei Dati (RPD)</t>
+  </si>
+  <si>
+    <t>Délégué à la Protection des Données (DPD)</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>Zweck</t>
+  </si>
+  <si>
+    <t>finalità (scopo/scopi)</t>
+  </si>
+  <si>
+    <t>finalité (fin/fins)</t>
   </si>
 </sst>
 </file>
@@ -627,12 +660,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -648,10 +687,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -967,17 +1007,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC61F687-4242-4A48-8CD8-A913C446BAEC}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" customWidth="1"/>
     <col min="6" max="6" width="69" customWidth="1"/>
   </cols>
   <sheetData>
@@ -986,35 +1026,35 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -1031,169 +1071,166 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" t="s">
         <v>158</v>
-      </c>
-      <c r="D8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -1201,16 +1238,16 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -1218,16 +1255,16 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -1235,16 +1272,16 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -1252,16 +1289,16 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -1269,16 +1306,16 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -1286,16 +1323,16 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -1303,332 +1340,388 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" t="s">
         <v>138</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" t="s">
         <v>139</v>
-      </c>
-      <c r="E39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" t="s">
         <v>144</v>
       </c>
-      <c r="C41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" t="s">
-        <v>145</v>
-      </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
         <v>168</v>
       </c>
-      <c r="E42" t="s">
-        <v>170</v>
-      </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" t="s">
         <v>147</v>
-      </c>
-      <c r="C43" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" t="s">
-        <v>149</v>
-      </c>
-      <c r="F43" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E45" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" t="s">
         <v>151</v>
-      </c>
-      <c r="F45" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="D47" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="F47" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" t="s">
-        <v>179</v>
-      </c>
-      <c r="E48" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" t="s">
+        <v>176</v>
+      </c>
+      <c r="F49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" t="s">
         <v>181</v>
       </c>
-      <c r="D49" t="s">
-        <v>183</v>
-      </c>
-      <c r="F49" t="s">
-        <v>182</v>
+      <c r="F51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/lang/official_GDPR_translations.xlsx
+++ b/lang/official_GDPR_translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snet/Documents/H2020 Projekte/2021/TRAPEZE/work packages/work package 4/TUB/privacy-dashboard/internal-repo/trapez-privacy-dashboard/lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B18891-FF53-004C-8C98-381492D9C996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16983E9-7A20-2B40-8630-7926E0B799A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33680" yWindow="4760" windowWidth="23500" windowHeight="17880" xr2:uid="{F5AAD40B-F190-B24C-A5C1-AA6E07944652}"/>
+    <workbookView xWindow="-28800" yWindow="2880" windowWidth="28800" windowHeight="17500" xr2:uid="{F5AAD40B-F190-B24C-A5C1-AA6E07944652}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="244">
   <si>
     <t>Glossary</t>
   </si>
@@ -629,13 +629,151 @@
   </si>
   <si>
     <t>finalité (fin/fins)</t>
+  </si>
+  <si>
+    <t>Right to Request Access to Personal Data</t>
+  </si>
+  <si>
+    <t>Right to Request Rectification of Personal Data</t>
+  </si>
+  <si>
+    <t>Right to Request Erasure of Personal Data</t>
+  </si>
+  <si>
+    <t>Right to Request Restriction of Processing</t>
+  </si>
+  <si>
+    <t>Right to Object to Processing</t>
+  </si>
+  <si>
+    <t>Right to Data Portability</t>
+  </si>
+  <si>
+    <t>Right to Withdraw Consent at any Time</t>
+  </si>
+  <si>
+    <t>Right to Lodge a Complaint</t>
+  </si>
+  <si>
+    <t>Art. 13 2. (b)</t>
+  </si>
+  <si>
+    <t>Art 13 2. (d)</t>
+  </si>
+  <si>
+    <t>Art 13 2. (c)</t>
+  </si>
+  <si>
+    <t>Beschwerderecht bei einer Aufsichtsbehörde</t>
+  </si>
+  <si>
+    <t>Recht die Einwilligung jederzeit zu widerrufen</t>
+  </si>
+  <si>
+    <t>Recht auf Auskunft über die betreffenden personenbezogene Daten</t>
+  </si>
+  <si>
+    <t>Recht auf Einschränkung der Verarbeitung</t>
+  </si>
+  <si>
+    <t>Widerspruchsrecht gegen die Verarbeitung</t>
+  </si>
+  <si>
+    <t>Recht auf Datenübertragbarkeit</t>
+  </si>
+  <si>
+    <t>Recht auf Berichtigung der betreffenden personenbezogenen Daten</t>
+  </si>
+  <si>
+    <t>Recht auf Löschung der betreffenden personenbezogenen Daten</t>
+  </si>
+  <si>
+    <t>NICHT VERIFIZIERT</t>
+  </si>
+  <si>
+    <t>le droit d'introduire une réclamation auprès d'une autorité de contrôle </t>
+  </si>
+  <si>
+    <t>le droit de demander l'accès aux données à caractère personnel </t>
+  </si>
+  <si>
+    <t>le droit de demander la rectification des données à caractère personnel</t>
+  </si>
+  <si>
+    <t>le droit de demander l'effacement des données à caractère personnel</t>
+  </si>
+  <si>
+    <t>le droit de demander une limitation du traitement</t>
+  </si>
+  <si>
+    <t>le droit de la portabilité des données</t>
+  </si>
+  <si>
+    <t>le droit de retirer son consentement à tout moment </t>
+  </si>
+  <si>
+    <t>Diritto di richiedere l'accesso ai dati personali</t>
+  </si>
+  <si>
+    <t>Diritto di richiedere la rettifica dei dati personali</t>
+  </si>
+  <si>
+    <t>Diritto di richiedere la cancellazione dei dati personali</t>
+  </si>
+  <si>
+    <t>Diritto di richiedere la limitazione del trattamento</t>
+  </si>
+  <si>
+    <t>Diritto di opporsi al trattamento</t>
+  </si>
+  <si>
+    <t>Diritto alla portabilità dei dati</t>
+  </si>
+  <si>
+    <t>Diritto di ritirare il consenso in qualsiasi momento</t>
+  </si>
+  <si>
+    <t>Diritto di presentare un reclamo</t>
+  </si>
+  <si>
+    <t>le droit de s'opposer au traitement</t>
+  </si>
+  <si>
+    <t>Article 13, paragraph 2, point (b) GDPR</t>
+  </si>
+  <si>
+    <t>unnumbered!</t>
+  </si>
+  <si>
+    <t>numbered!</t>
+  </si>
+  <si>
+    <t>Artikel 4, Nummer 5 DSGVO</t>
+  </si>
+  <si>
+    <t>Artikel 13, Absatz 2, Buchstabe b)</t>
+  </si>
+  <si>
+    <t>Article 4, point (5) GDPR</t>
+  </si>
+  <si>
+    <t>Article 4, point 5) RGPD</t>
+  </si>
+  <si>
+    <t>Article 13, paragraphe 2, point b) RGPD</t>
+  </si>
+  <si>
+    <t>articolo 13, paragrafo 2, punto b) RGPD</t>
+  </si>
+  <si>
+    <t>articolo 4, punto 4 RGPD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -659,8 +797,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,6 +832,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,11 +855,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1007,16 +1182,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC61F687-4242-4A48-8CD8-A913C446BAEC}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="B41" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="57.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.1640625" customWidth="1"/>
     <col min="6" max="6" width="69" customWidth="1"/>
   </cols>
@@ -1087,16 +1262,16 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1674,7 +1849,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>173</v>
       </c>
@@ -1688,7 +1863,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>178</v>
       </c>
@@ -1699,7 +1874,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>179</v>
       </c>
@@ -1710,7 +1885,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>190</v>
       </c>
@@ -1723,6 +1898,247 @@
       <c r="F53" t="s">
         <v>193</v>
       </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" t="s">
+        <v>215</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" t="s">
+        <v>216</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" t="s">
+        <v>212</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="5"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F66" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" t="s">
+        <v>238</v>
+      </c>
+      <c r="E67" t="s">
+        <v>242</v>
+      </c>
+      <c r="F67" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="6"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="6"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="6"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="6"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="5"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
